--- a/webapp/media/documents/template/ACM_Placement_School_Data.xlsx
+++ b/webapp/media/documents/template/ACM_Placement_School_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\City_Year\GitHub\ACM-School-Placement-App\media\documents\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\City_Year\GitHub\ACM-School-Placement\webapp\media\documents\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,6 @@
     <definedName name="schools">'[1]Master Sheet'!$A$1:$AJ$29</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -32,6 +31,19 @@
     <author>City Year</author>
   </authors>
   <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The sum of this column must equal the number of ACMs being placed</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -55,6 +67,19 @@
             <family val="2"/>
           </rPr>
           <t>This information is needed to prevent prior relationship conflicts between ACMs and IMs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Used for commute time calculation</t>
         </r>
       </text>
     </comment>
@@ -98,9 +123,6 @@
     <t>Team Leader</t>
   </si>
   <si>
-    <t>ACM Start Time</t>
-  </si>
-  <si>
     <t>GradeLevel</t>
   </si>
   <si>
@@ -114,6 +136,9 @@
   </si>
   <si>
     <t>Manager</t>
+  </si>
+  <si>
+    <t>ACM Start Time (Eastern Time)</t>
   </si>
 </sst>
 </file>
@@ -2869,7 +2894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2885,30 +2912,30 @@
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2933,42 +2960,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <k01190c785084ffca4a08ebe19c940f9 xmlns="7d7f0fb3-fc0c-42b7-ae95-aa004ddda8cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </k01190c785084ffca4a08ebe19c940f9>
-    <ebf32357c2e44b5e8e555d4e8d7cfda4 xmlns="7d7f0fb3-fc0c-42b7-ae95-aa004ddda8cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ebf32357c2e44b5e8e555d4e8d7cfda4>
-    <o480d5e64e2641928d9c6d51e1fb1078 xmlns="7d7f0fb3-fc0c-42b7-ae95-aa004ddda8cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o480d5e64e2641928d9c6d51e1fb1078>
-    <TaxCatchAll xmlns="7d7f0fb3-fc0c-42b7-ae95-aa004ddda8cb"/>
-    <hbef4a03c5024f668fd4790d75596e43 xmlns="7d7f0fb3-fc0c-42b7-ae95-aa004ddda8cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </hbef4a03c5024f668fd4790d75596e43>
-    <TaxKeywordTaxHTField xmlns="7d7f0fb3-fc0c-42b7-ae95-aa004ddda8cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="City Year Excel Document" ma:contentTypeID="0x010100E9CE3E7F755D03459E84027195990C7003003C6B6AD5D8D1C04D840D895A2F98808A" ma:contentTypeVersion="8" ma:contentTypeDescription="An Excel Document based on City Year Document" ma:contentTypeScope="" ma:versionID="c72ef411c5ca78b3222ddbbd34d1b181">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7d7f0fb3-fc0c-42b7-ae95-aa004ddda8cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8eddcf26b94853f8680ede0f1b33d7a" ns3:_="">
     <xsd:import namespace="7d7f0fb3-fc0c-42b7-ae95-aa004ddda8cb"/>
@@ -3152,44 +3143,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <k01190c785084ffca4a08ebe19c940f9 xmlns="7d7f0fb3-fc0c-42b7-ae95-aa004ddda8cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </k01190c785084ffca4a08ebe19c940f9>
+    <ebf32357c2e44b5e8e555d4e8d7cfda4 xmlns="7d7f0fb3-fc0c-42b7-ae95-aa004ddda8cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ebf32357c2e44b5e8e555d4e8d7cfda4>
+    <o480d5e64e2641928d9c6d51e1fb1078 xmlns="7d7f0fb3-fc0c-42b7-ae95-aa004ddda8cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o480d5e64e2641928d9c6d51e1fb1078>
+    <TaxCatchAll xmlns="7d7f0fb3-fc0c-42b7-ae95-aa004ddda8cb"/>
+    <hbef4a03c5024f668fd4790d75596e43 xmlns="7d7f0fb3-fc0c-42b7-ae95-aa004ddda8cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </hbef4a03c5024f668fd4790d75596e43>
+    <TaxKeywordTaxHTField xmlns="7d7f0fb3-fc0c-42b7-ae95-aa004ddda8cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="0ccdaf5d-9695-4426-8758-5feff6069add" ContentTypeId="0x010100E9CE3E7F755D03459E84027195990C7003" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0A43871-5FFF-45FB-AB41-94A310237431}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F986EB14-2A48-4B6C-9C1D-A3A1505108DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B25A636-7DAB-4BE6-A4B6-83DA1BBAB659}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7d7f0fb3-fc0c-42b7-ae95-aa004ddda8cb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08EA1B8C-0A5B-4D94-8158-89F1809A656E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3207,6 +3202,38 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B25A636-7DAB-4BE6-A4B6-83DA1BBAB659}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7d7f0fb3-fc0c-42b7-ae95-aa004ddda8cb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F986EB14-2A48-4B6C-9C1D-A3A1505108DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0A43871-5FFF-45FB-AB41-94A310237431}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D2056DF-DDB9-4067-ADBD-AD141D961296}">
   <ds:schemaRefs>
